--- a/projects.xlsx
+++ b/projects.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
   <si>
     <t>AmJesus</t>
   </si>
@@ -745,7 +745,7 @@
   <dimension ref="B2:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,6 +1289,9 @@
         <v>45</v>
       </c>
       <c r="G20" s="5"/>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
@@ -1537,86 +1540,94 @@
     <sortCondition ref="C3:C46"/>
   </sortState>
   <conditionalFormatting sqref="D3:H3 D31:H31 F18:H18 F32:H32 H16 F29:H30 F4:H5 D6:H7 H8 J14:K14 J8:K8 D9:H15 D17:H17 D19:H23 D26:H28 F24:H24 G25:H25 J24:K25">
-    <cfRule type="cellIs" dxfId="9" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G8">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:K10">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:G16">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E25 F25">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
   <si>
     <t>AmJesus</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>REV</t>
+  </si>
+  <si>
+    <t>EQ as last</t>
   </si>
 </sst>
 </file>
@@ -258,21 +261,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -742,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W46"/>
+  <dimension ref="B2:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,12 +742,12 @@
     <col min="1" max="2" width="7" style="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
-    <col min="5" max="14" width="7" style="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="7" style="1"/>
+    <col min="5" max="15" width="7" style="1"/>
+    <col min="16" max="16" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="7" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>48</v>
       </c>
@@ -769,46 +758,52 @@
         <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f>B2+1</f>
         <v>1</v>
@@ -816,15 +811,16 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <f>B33+1</f>
         <v>32</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B33" si="0">B3+1</f>
         <v>2</v>
@@ -832,18 +828,19 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="N4" s="1">
-        <f t="shared" ref="N4:N15" si="1">N3+1</f>
+      <c r="H4" s="5"/>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O15" si="1">O3+1</f>
         <v>33</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -857,33 +854,34 @@
       <c r="E5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="N5" s="1">
+      <c r="H5" s="5"/>
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="Q5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S5" s="5"/>
+      <c r="S5" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T5" s="5"/>
-      <c r="V5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="X5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -898,17 +896,19 @@
         <v>45</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="N6" s="1">
+      <c r="H6" s="5"/>
+      <c r="O6" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -917,23 +917,25 @@
         <v>3</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="N7" s="1">
+      <c r="H7" s="5"/>
+      <c r="O7" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="Q7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="5"/>
+      <c r="R7" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -951,32 +953,34 @@
         <v>45</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="J8" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="K8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="1">
+      <c r="L8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="Q8" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="5"/>
+      <c r="S8" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -994,26 +998,28 @@
         <v>45</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="N9" s="1">
+      <c r="H9" s="5"/>
+      <c r="O9" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="Q9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="5"/>
+      <c r="S9" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1031,23 +1037,25 @@
         <v>45</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="J10" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="K10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="1">
+      <c r="L10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1056,23 +1064,25 @@
         <v>4</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="N11" s="1">
+      <c r="H11" s="5"/>
+      <c r="O11" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="Q11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="5"/>
+      <c r="R11" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1081,17 +1091,19 @@
         <v>6</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="N12" s="1">
+      <c r="H12" s="5"/>
+      <c r="O12" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1100,23 +1112,25 @@
         <v>5</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="N13" s="1">
+      <c r="H13" s="5"/>
+      <c r="O13" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="Q13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S13" s="5"/>
+      <c r="R13" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1134,32 +1148,34 @@
         <v>45</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="J14" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="H14" s="5"/>
       <c r="K14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="1">
+      <c r="L14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="Q14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S14" s="5"/>
+      <c r="S14" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1174,17 +1190,19 @@
         <v>45</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="N15" s="1">
+      <c r="H15" s="5"/>
+      <c r="O15" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1202,16 +1220,18 @@
         <v>45</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="J16" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="H16" s="5"/>
       <c r="K16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S16" s="5"/>
+      <c r="L16" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1229,13 +1249,15 @@
         <v>45</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="J17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="K17" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1250,10 +1272,12 @@
         <v>45</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1268,10 +1292,11 @@
         <v>45</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1289,11 +1314,12 @@
         <v>45</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H20" s="5"/>
+      <c r="K20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1308,8 +1334,9 @@
         <v>45</v>
       </c>
       <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1326,17 +1353,18 @@
       <c r="F22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1351,8 +1379,9 @@
         <v>45</v>
       </c>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1370,14 +1399,15 @@
         <v>45</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="J24" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="H24" s="5"/>
       <c r="K24" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L24" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1395,14 +1425,15 @@
         <v>45</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="J25" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="H25" s="5"/>
       <c r="K25" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L25" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1411,8 +1442,9 @@
         <v>32</v>
       </c>
       <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1420,9 +1452,9 @@
       <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1430,9 +1462,9 @@
       <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1440,9 +1472,9 @@
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1459,15 +1491,15 @@
       <c r="F30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="J30" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H30" s="5"/>
       <c r="K30" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1475,9 +1507,9 @@
       <c r="C31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1485,7 +1517,7 @@
       <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
@@ -1539,99 +1571,99 @@
   <sortState ref="B3:G46">
     <sortCondition ref="C3:C46"/>
   </sortState>
-  <conditionalFormatting sqref="D3:H3 D31:H31 F18:H18 F32:H32 H16 F29:H30 F4:H5 D6:H7 H8 J14:K14 J8:K8 D9:H15 D17:H17 D19:H23 D26:H28 F24:H24 G25:H25 J24:K25">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D19:I23 D26:I28 F24:I24 H25:I25 K24:L25">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:G8">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+  <conditionalFormatting sqref="E8:H8">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K10">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+  <conditionalFormatting sqref="K10:L10">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:G16">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+  <conditionalFormatting sqref="E16:H16">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+  <conditionalFormatting sqref="K17">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:K22">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+  <conditionalFormatting sqref="K22:L22">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E25 F25">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="D24:E25 F25:G25">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>"no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="L30">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
   <si>
     <t>AmJesus</t>
   </si>
@@ -261,7 +261,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -734,7 +748,7 @@
   <dimension ref="B2:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1367,9 @@
       <c r="F22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>45</v>
       </c>
@@ -1571,99 +1587,99 @@
   <sortState ref="B3:G46">
     <sortCondition ref="C3:C46"/>
   </sortState>
-  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D19:I23 D26:I28 F24:I24 H25:I25 K24:L25">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D26:I28 F24:I24 H25:I25 K24:L25 D19:I23">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:H16">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L22">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E25 F25:G25">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="54">
   <si>
     <t>AmJesus</t>
   </si>
@@ -261,21 +261,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -748,7 +734,7 @@
   <dimension ref="B2:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:G22"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,9 +1015,14 @@
       <c r="S9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="5"/>
+      <c r="T9" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
+      <c r="X9" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -1588,98 +1579,98 @@
     <sortCondition ref="C3:C46"/>
   </sortState>
   <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D26:I28 F24:I24 H25:I25 K24:L25 D19:I23">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:H16">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L22">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E25 F25:G25">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
   <si>
     <t>AmJesus</t>
   </si>
@@ -261,7 +261,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -734,7 +748,7 @@
   <dimension ref="B2:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="F20" sqref="F20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1332,9 @@
       <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="K20" s="1" t="s">
         <v>45</v>
@@ -1579,98 +1595,98 @@
     <sortCondition ref="C3:C46"/>
   </sortState>
   <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D26:I28 F24:I24 H25:I25 K24:L25 D19:I23">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:H16">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L22">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E25 F25:G25">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
   <si>
     <t>AmJesus</t>
   </si>
@@ -748,7 +748,7 @@
   <dimension ref="B2:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:G20"/>
+      <selection activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,6 +1464,9 @@
       <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E26" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
@@ -1594,7 +1597,7 @@
   <sortState ref="B3:G46">
     <sortCondition ref="C3:C46"/>
   </sortState>
-  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D26:I28 F24:I24 H25:I25 K24:L25 D19:I23">
+  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D27:I28 F24:I24 H25:I25 K24:L25 D19:I23 D26 F26:I26">
     <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -1658,7 +1661,7 @@
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E25 F25:G25">
+  <conditionalFormatting sqref="D24:E25 F25:G25 E26">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="54">
   <si>
     <t>AmJesus</t>
   </si>
@@ -261,7 +261,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -748,7 +790,7 @@
   <dimension ref="B2:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,11 +1506,19 @@
       <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H26" s="5"/>
+      <c r="K26" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
@@ -1597,95 +1647,103 @@
   <sortState ref="B3:G46">
     <sortCondition ref="C3:C46"/>
   </sortState>
-  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D27:I28 F24:I24 H25:I25 K24:L25 D19:I23 D26 F26:I26">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D27:I28 F24:I24 K24:L25 D19:I23 F26 K26 H25:I26">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:H16">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L22">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E25 F25:G25 E26">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="F25:G25 D24:E26">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="54">
   <si>
     <t>AmJesus</t>
   </si>
@@ -261,21 +261,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -790,7 +776,7 @@
   <dimension ref="B2:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="L25" sqref="L25:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,11 +1498,17 @@
       <c r="E26" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="F26" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H26" s="5"/>
       <c r="K26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1647,107 +1639,107 @@
   <sortState ref="B3:G46">
     <sortCondition ref="C3:C46"/>
   </sortState>
-  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D27:I28 F24:I24 K24:L25 D19:I23 F26 K26 H25:I26">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D27:I28 F24:I24 D19:I23 H25:I26 K24:L26">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:H16">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L22">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G25 D24:E26">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+  <conditionalFormatting sqref="F25:G25 D24:E26 F26">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
   <si>
     <t>AmJesus</t>
   </si>
@@ -261,7 +261,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -776,7 +804,7 @@
   <dimension ref="B2:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25:L26"/>
+      <selection activeCell="G26" sqref="G26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1548,19 @@
       <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H27" s="5"/>
+      <c r="K27" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
@@ -1639,107 +1679,107 @@
   <sortState ref="B3:G46">
     <sortCondition ref="C3:C46"/>
   </sortState>
-  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D27:I28 F24:I24 D19:I23 H25:I26 K24:L26">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D28:I28 F24:I24 D19:I23 K24:L26 F27 K27 H25:I27">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:H16">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L22">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G25 D24:E26 F26">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+  <conditionalFormatting sqref="F25:G25 F26 D24:E27">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="55">
   <si>
     <t>AmJesus</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>EQ as last</t>
+  </si>
+  <si>
+    <t>spatialize</t>
   </si>
 </sst>
 </file>
@@ -261,21 +264,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -801,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y46"/>
+  <dimension ref="B2:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G27"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +806,7 @@
     <col min="17" max="16384" width="7" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>48</v>
       </c>
@@ -845,6 +834,9 @@
       <c r="L2" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="Q2" s="3" t="s">
         <v>48</v>
       </c>
@@ -872,8 +864,11 @@
       <c r="Y2" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f>B2+1</f>
         <v>1</v>
@@ -890,7 +885,7 @@
       </c>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B33" si="0">B3+1</f>
         <v>2</v>
@@ -910,7 +905,7 @@
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -951,7 +946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -978,7 +973,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1005,7 +1000,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1050,7 +1045,7 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1094,7 +1089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1130,7 +1125,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1157,7 +1152,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1178,7 +1173,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1205,7 +1200,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1250,7 +1245,7 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1277,7 +1272,7 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1554,11 +1549,20 @@
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="F27" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="5"/>
       <c r="K27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1679,107 +1683,107 @@
   <sortState ref="B3:G46">
     <sortCondition ref="C3:C46"/>
   </sortState>
-  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D28:I28 F24:I24 D19:I23 K24:L26 F27 K27 H25:I27">
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D28:I28 F24:I24 D19:I23 H25:I27 K24:L27 M27">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:H16">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L22">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G25 F26 D24:E27">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+  <conditionalFormatting sqref="F25:G25 D24:E27 F26:F27">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="55">
   <si>
     <t>AmJesus</t>
   </si>
@@ -264,21 +264,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -793,7 +779,7 @@
   <dimension ref="B2:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="F30" sqref="F30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1605,25 @@
       <c r="C31" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H31" s="5"/>
+      <c r="K31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
@@ -1683,107 +1687,107 @@
   <sortState ref="B3:G46">
     <sortCondition ref="C3:C46"/>
   </sortState>
-  <conditionalFormatting sqref="D3:I3 D31:I31 F18:I18 F32:I32 I16 F29:I30 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D28:I28 F24:I24 D19:I23 H25:I27 K24:L27 M27">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+  <conditionalFormatting sqref="D3:I3 F18:I18 I16 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D28:I28 F24:I24 D19:I23 H25:I27 K24:L27 M27 F29:I32">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:H16">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L22">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25 D24:E27 F26:F27">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+  <conditionalFormatting sqref="K30:K31">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+  <conditionalFormatting sqref="L30:L31 M31">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="55">
   <si>
     <t>AmJesus</t>
   </si>
@@ -264,35 +264,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -779,7 +751,7 @@
   <dimension ref="B2:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F31"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +760,7 @@
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
     <col min="5" max="15" width="7" style="1"/>
-    <col min="16" max="16" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="7" style="1"/>
   </cols>
   <sheetData>
@@ -1182,9 +1154,17 @@
       <c r="R13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="5"/>
+      <c r="S13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
+      <c r="X13" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
@@ -1688,106 +1668,106 @@
     <sortCondition ref="C3:C46"/>
   </sortState>
   <conditionalFormatting sqref="D3:I3 F18:I18 I16 F4:I5 D6:I7 I8 K14:L14 K8:L8 D9:I15 D17:I17 D28:I28 F24:I24 D19:I23 H25:I27 K24:L27 M27 F29:I32">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:H16">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L22">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25 D24:E27 F26:F27">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:L31 M31">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
